--- a/model_considerations/model_validation_historical_data/ev_norway.xlsx
+++ b/model_considerations/model_validation_historical_data/ev_norway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s203679_dtu_dk/Documents/Dokumenter/DTU_Man/h2_system_dynamics/model_considerations/model_validation_historical_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8DD72C88-59BD-4613-AC9A-5287BED939C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00540DE1-309E-47D9-B64F-3A378D077246}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8DD72C88-59BD-4613-AC9A-5287BED939C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71B5CD26-D566-4F1B-8F83-91930F1313E6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1533,16 +1533,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2210,7 +2210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2592,6 +2592,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="V9:W9"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AA9"/>
@@ -2601,11 +2606,6 @@
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2615,11 +2615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3089,6 +3089,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="V9:W9"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
@@ -3096,11 +3101,6 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="V9:W9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
